--- a/src/test/resources/testdata/Sdetproject.xlsx
+++ b/src/test/resources/testdata/Sdetproject.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Company</t>
   </si>
   <si>
     <t>Job Title</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
   </si>
   <si>
     <t>Comment</t>
@@ -37,9 +31,6 @@
     <t>Tester</t>
   </si>
   <si>
-    <t>2023-April-4</t>
-  </si>
-  <si>
     <t>I have added details.</t>
   </si>
 </sst>
@@ -47,11 +38,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -656,14 +648,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99082568807339" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99082568807339" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.3394495412844" customWidth="1"/>
     <col min="2" max="2" width="15.7339449541284" customWidth="1"/>
@@ -1053,7 +1042,7 @@
     <col min="5" max="5" width="25.6146788990826" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,31 +1052,26 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44624</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:E2">
+    <sortCondition ref="D2" descending="1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
